--- a/biology/Biologie cellulaire et moléculaire/Microscope_de_fluorescence_par_réflexion_totale_interne/Microscope_de_fluorescence_par_réflexion_totale_interne.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Microscope_de_fluorescence_par_réflexion_totale_interne/Microscope_de_fluorescence_par_réflexion_totale_interne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Microscope_de_fluorescence_par_r%C3%A9flexion_totale_interne</t>
+          <t>Microscope_de_fluorescence_par_réflexion_totale_interne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le microscope de fluorescence par réflexion totale interne (TIRFM, total internal reflection fluorescence microscopy), ou microscope à onde évanescente, est un type particulier de microscope optique à fluorescence permettant d'examiner une tranche très fine d'un échantillon (moins de 200 nm d'épaisseur), grâce à un mode d'illumination particulier : la réflexion totale interne.
 En biologie cellulaire, un grand nombre d'évènements moléculaires intervenant à la surface des cellules comme l'adhésion cellulaire, la fixation d'hormones sur des récepteurs de la membrane plasmique, la sécrétion de neurotransmetteurs ainsi que la dynamique membranaire (endocytose, exocytose) ont été étudiés en microscopie de fluorescence conventionnelle ou confocale. Cependant, il existe un état d'équilibre entre les molécules fluorescentes qui se lient à la surface du spécimen et celles présentes dans son environnement immédiat. Lorsque ces molécules sont excitées et leur fluorescence détectée par un microscope conventionnel, la fluorescence provenant des molécules liées est mélangée avec la fluorescence provenant des molécules libres qui sont généralement largement excédentaires.
